--- a/Image processing comparison/negatives.xlsx
+++ b/Image processing comparison/negatives.xlsx
@@ -453,7 +453,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>5.077576160430908</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.634586334228516</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -513,7 +513,7 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3.613167524337769</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2.955438852310181</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -593,7 +593,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>6.934174537658691</v>
+        <v>7.289011478424072</v>
       </c>
       <c r="D9">
         <v>9.233729362487793</v>
@@ -613,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2.955438852310181</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>9.254150390625</v>
+        <v>9.361291885375977</v>
       </c>
       <c r="D11">
         <v>8.06851863861084</v>
@@ -653,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>6.709136009216309</v>
+        <v>10.91279149055481</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>15.63311672210693</v>
+        <v>16.16635513305664</v>
       </c>
       <c r="D13">
         <v>9.055385589599609</v>
@@ -693,7 +693,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>6.210140705108643</v>
+        <v>8.831316709518433</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>4.448910713195801</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>8.05933666229248</v>
+        <v>11.33061385154724</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>13</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>2.955438852310181</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>13</v>
       </c>
       <c r="C20">
-        <v>8.027070045471191</v>
+        <v>7.917736530303955</v>
       </c>
       <c r="D20">
         <v>9.193733215332031</v>
@@ -833,7 +833,7 @@
         <v>13</v>
       </c>
       <c r="C21">
-        <v>5.296806812286377</v>
+        <v>14.84580516815186</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>14</v>
       </c>
       <c r="C22">
-        <v>5.073776245117188</v>
+        <v>22.16390085220337</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>14</v>
       </c>
       <c r="C24">
-        <v>8.876328468322754</v>
+        <v>12.40105843544006</v>
       </c>
       <c r="D24">
         <v>8.954010009765625</v>
@@ -913,7 +913,7 @@
         <v>14</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>8.337146282196045</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>15</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>4.315976142883301</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>15</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>11.40879583358765</v>
       </c>
       <c r="D28">
-        <v>7.280109882354736</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>8.123106002807617</v>
@@ -1053,7 +1053,7 @@
         <v>16</v>
       </c>
       <c r="C32">
-        <v>26.15472507476807</v>
+        <v>31.79722595214844</v>
       </c>
       <c r="D32">
         <v>28.52133655548096</v>

--- a/Image processing comparison/negatives.xlsx
+++ b/Image processing comparison/negatives.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="29">
   <si>
     <t>fileName</t>
   </si>
@@ -43,28 +43,64 @@
     <t>RV</t>
   </si>
   <si>
-    <t>151436.jpg</t>
-  </si>
-  <si>
-    <t>151446.jpg</t>
-  </si>
-  <si>
-    <t>151454.jpg</t>
-  </si>
-  <si>
-    <t>1501_1.jpg</t>
-  </si>
-  <si>
-    <t>151508.jpg</t>
-  </si>
-  <si>
-    <t>1513_1.jpg</t>
-  </si>
-  <si>
-    <t>151520.jpg</t>
-  </si>
-  <si>
-    <t>122500.jpg</t>
+    <t>165022.jpg</t>
+  </si>
+  <si>
+    <t>165030.jpg</t>
+  </si>
+  <si>
+    <t>165049.jpg</t>
+  </si>
+  <si>
+    <t>165101.jpg</t>
+  </si>
+  <si>
+    <t>165109.jpg</t>
+  </si>
+  <si>
+    <t>165113.jpg</t>
+  </si>
+  <si>
+    <t>165119.jpg</t>
+  </si>
+  <si>
+    <t>5127_1.jpg</t>
+  </si>
+  <si>
+    <t>165133.jpg</t>
+  </si>
+  <si>
+    <t>165141.jpg</t>
+  </si>
+  <si>
+    <t>165159.jpg</t>
+  </si>
+  <si>
+    <t>165206.jpg</t>
+  </si>
+  <si>
+    <t>165213.jpg</t>
+  </si>
+  <si>
+    <t>184703.jpg</t>
+  </si>
+  <si>
+    <t>184710.jpg</t>
+  </si>
+  <si>
+    <t>184716.jpg</t>
+  </si>
+  <si>
+    <t>184723.jpg</t>
+  </si>
+  <si>
+    <t>184730.jpg</t>
+  </si>
+  <si>
+    <t>184748.jpg</t>
+  </si>
+  <si>
+    <t>184757.jpg</t>
   </si>
 </sst>
 </file>
@@ -422,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,16 +489,16 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>5.077576160430908</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.324555397033691</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>6.324555397033691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -479,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.525193214416504</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>7.525193214416504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -493,16 +529,16 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>3.634586334228516</v>
+        <v>15.82960414886475</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>10.82334995269775</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>20.07355213165283</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>20.07355213165283</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -513,16 +549,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>3.613167524337769</v>
+        <v>35.12508010864258</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>30.17332077026367</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>41.99048042297363</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>41.99048042297363</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -533,7 +569,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>2.955438852310181</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -573,16 +609,16 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>15.40772104263306</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>16.51383924484253</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>18.20313739776611</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>18.20313739776611</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -593,16 +629,16 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>7.289011478424072</v>
+        <v>13.19890022277832</v>
       </c>
       <c r="D9">
-        <v>9.233729362487793</v>
+        <v>6.324555397033691</v>
       </c>
       <c r="E9">
-        <v>9.988638877868652</v>
+        <v>25.63241195678711</v>
       </c>
       <c r="F9">
-        <v>9.988638877868652</v>
+        <v>25.63241195678711</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -613,7 +649,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>2.955438852310181</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -633,16 +669,16 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>9.361291885375977</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>8.06851863861084</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>7.61577320098877</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>7.61577320098877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -653,16 +689,16 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>10.91279149055481</v>
+        <v>20.60726261138916</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>22.15040397644043</v>
       </c>
       <c r="E12">
-        <v>7.280109882354736</v>
+        <v>23.17685413360596</v>
       </c>
       <c r="F12">
-        <v>7.280109882354736</v>
+        <v>23.17685413360596</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -673,16 +709,16 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>16.16635513305664</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>9.055385589599609</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>10.31901073455811</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>10.31901073455811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -693,16 +729,16 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>8.831316709518433</v>
+        <v>7.334364414215088</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>9.055385589599609</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>9.071174621582031</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>9.071174621582031</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -733,16 +769,16 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>4.448910713195801</v>
+        <v>7.269095897674561</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>9.292146682739258</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>11.19658279418945</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>11.19658279418945</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -753,16 +789,16 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>11.33061385154724</v>
+        <v>7.839406490325928</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>7.61577320098877</v>
       </c>
       <c r="E17">
-        <v>9.055385589599609</v>
+        <v>9.378569602966309</v>
       </c>
       <c r="F17">
-        <v>9.055385589599609</v>
+        <v>9.378569602966309</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -773,7 +809,7 @@
         <v>13</v>
       </c>
       <c r="C18">
-        <v>2.955438852310181</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -813,16 +849,16 @@
         <v>13</v>
       </c>
       <c r="C20">
-        <v>7.917736530303955</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>9.193733215332031</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>10.20869541168213</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>10.20869541168213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -833,7 +869,7 @@
         <v>13</v>
       </c>
       <c r="C21">
-        <v>14.84580516815186</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -853,7 +889,7 @@
         <v>14</v>
       </c>
       <c r="C22">
-        <v>22.16390085220337</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -893,16 +929,16 @@
         <v>14</v>
       </c>
       <c r="C24">
-        <v>12.40105843544006</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>8.954010009765625</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>10.29587078094482</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>10.29587078094482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -913,7 +949,7 @@
         <v>14</v>
       </c>
       <c r="C25">
-        <v>8.337146282196045</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -933,16 +969,16 @@
         <v>15</v>
       </c>
       <c r="C26">
-        <v>4.315976142883301</v>
+        <v>35.06193351745605</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>28.29248428344727</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>41.64245510101318</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>41.64245510101318</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -973,16 +1009,16 @@
         <v>15</v>
       </c>
       <c r="C28">
-        <v>11.40879583358765</v>
+        <v>22.95329570770264</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>19.41853618621826</v>
       </c>
       <c r="E28">
-        <v>8.123106002807617</v>
+        <v>28.44662761688232</v>
       </c>
       <c r="F28">
-        <v>8.123106002807617</v>
+        <v>28.44662761688232</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1053,16 +1089,16 @@
         <v>16</v>
       </c>
       <c r="C32">
-        <v>31.79722595214844</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>28.52133655548096</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>32.29600143432617</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>32.29600143432617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1083,6 +1119,966 @@
       </c>
       <c r="F33">
         <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34">
+        <v>15.61329317092896</v>
+      </c>
+      <c r="D34">
+        <v>24.43532657623291</v>
+      </c>
+      <c r="E34">
+        <v>20.55867290496826</v>
+      </c>
+      <c r="F34">
+        <v>20.55867290496826</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <v>8.83936595916748</v>
+      </c>
+      <c r="D36">
+        <v>10.95739459991455</v>
+      </c>
+      <c r="E36">
+        <v>17.52588844299316</v>
+      </c>
+      <c r="F36">
+        <v>17.52588844299316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <v>12.2643575668335</v>
+      </c>
+      <c r="D37">
+        <v>6.324555397033691</v>
+      </c>
+      <c r="E37">
+        <v>16.6869478225708</v>
+      </c>
+      <c r="F37">
+        <v>16.6869478225708</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>5.719285011291504</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>17.27071905136108</v>
+      </c>
+      <c r="D40">
+        <v>20.58299922943115</v>
+      </c>
+      <c r="E40">
+        <v>20.96351146697998</v>
+      </c>
+      <c r="F40">
+        <v>20.96351146697998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>6.950903415679932</v>
+      </c>
+      <c r="D41">
+        <v>6.324555397033691</v>
+      </c>
+      <c r="E41">
+        <v>13.94032859802246</v>
+      </c>
+      <c r="F41">
+        <v>13.94032859802246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42">
+        <v>6.290615558624268</v>
+      </c>
+      <c r="D42">
+        <v>7.61577320098877</v>
+      </c>
+      <c r="E42">
+        <v>9</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>13.8812575340271</v>
+      </c>
+      <c r="D44">
+        <v>9.333250045776367</v>
+      </c>
+      <c r="E44">
+        <v>10.82140159606934</v>
+      </c>
+      <c r="F44">
+        <v>10.82140159606934</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <v>6.105299949645996</v>
+      </c>
+      <c r="D45">
+        <v>9.06177806854248</v>
+      </c>
+      <c r="E45">
+        <v>10.64423084259033</v>
+      </c>
+      <c r="F45">
+        <v>10.64423084259033</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>20.02425003051758</v>
+      </c>
+      <c r="D46">
+        <v>23.84542179107666</v>
+      </c>
+      <c r="E46">
+        <v>32.23542213439941</v>
+      </c>
+      <c r="F46">
+        <v>32.23542213439941</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>6.623881816864014</v>
+      </c>
+      <c r="D48">
+        <v>6.324555397033691</v>
+      </c>
+      <c r="E48">
+        <v>8.42731761932373</v>
+      </c>
+      <c r="F48">
+        <v>8.42731761932373</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49">
+        <v>13.15943956375122</v>
+      </c>
+      <c r="D49">
+        <v>14.64741516113281</v>
+      </c>
+      <c r="E49">
+        <v>15.34988880157471</v>
+      </c>
+      <c r="F49">
+        <v>15.34988880157471</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50">
+        <v>19.37447261810303</v>
+      </c>
+      <c r="D50">
+        <v>6.324555397033691</v>
+      </c>
+      <c r="E50">
+        <v>21.70449638366699</v>
+      </c>
+      <c r="F50">
+        <v>21.70449638366699</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52">
+        <v>25.00237369537354</v>
+      </c>
+      <c r="D52">
+        <v>20.24658584594727</v>
+      </c>
+      <c r="E52">
+        <v>28.68837356567383</v>
+      </c>
+      <c r="F52">
+        <v>28.68837356567383</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>8.246211051940918</v>
+      </c>
+      <c r="F55">
+        <v>8.246211051940918</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>12.64911079406738</v>
+      </c>
+      <c r="F56">
+        <v>12.64911079406738</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57">
+        <v>14.1036810874939</v>
+      </c>
+      <c r="D57">
+        <v>15.50768709182739</v>
+      </c>
+      <c r="E57">
+        <v>19.52458477020264</v>
+      </c>
+      <c r="F57">
+        <v>19.52458477020264</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>7.280109882354736</v>
+      </c>
+      <c r="F58">
+        <v>7.280109882354736</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>9.284153938293457</v>
+      </c>
+      <c r="F59">
+        <v>9.284153938293457</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>6.324555397033691</v>
+      </c>
+      <c r="E60">
+        <v>15.23154640197754</v>
+      </c>
+      <c r="F60">
+        <v>15.23154640197754</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61">
+        <v>13.05076122283936</v>
+      </c>
+      <c r="D61">
+        <v>17.11343812942505</v>
+      </c>
+      <c r="E61">
+        <v>20.72372055053711</v>
+      </c>
+      <c r="F61">
+        <v>20.72372055053711</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>6.324555397033691</v>
+      </c>
+      <c r="F62">
+        <v>6.324555397033691</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>29.54610443115234</v>
+      </c>
+      <c r="F63">
+        <v>29.54610443115234</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64">
+        <v>11.82108116149902</v>
+      </c>
+      <c r="D64">
+        <v>12.64911079406738</v>
+      </c>
+      <c r="E64">
+        <v>15.05038642883301</v>
+      </c>
+      <c r="F64">
+        <v>15.05038642883301</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65">
+        <v>36.31747198104858</v>
+      </c>
+      <c r="D65">
+        <v>41.1585168838501</v>
+      </c>
+      <c r="E65">
+        <v>46.11636447906494</v>
+      </c>
+      <c r="F65">
+        <v>46.11636447906494</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66">
+        <v>13.82215976715088</v>
+      </c>
+      <c r="D66">
+        <v>8.123106002807617</v>
+      </c>
+      <c r="E66">
+        <v>17.73685359954834</v>
+      </c>
+      <c r="F66">
+        <v>17.73685359954834</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>32.20489740371704</v>
+      </c>
+      <c r="F67">
+        <v>32.20489740371704</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>13.8497486114502</v>
+      </c>
+      <c r="F69">
+        <v>13.8497486114502</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>6.324555397033691</v>
+      </c>
+      <c r="F70">
+        <v>6.324555397033691</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>40.32329273223877</v>
+      </c>
+      <c r="F71">
+        <v>40.32329273223877</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>17.13449859619141</v>
+      </c>
+      <c r="F72">
+        <v>17.13449859619141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73">
+        <v>23.07506465911865</v>
+      </c>
+      <c r="D73">
+        <v>29.8702335357666</v>
+      </c>
+      <c r="E73">
+        <v>33.97949695587158</v>
+      </c>
+      <c r="F73">
+        <v>33.97949695587158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>39.52102994918823</v>
+      </c>
+      <c r="F74">
+        <v>39.52102994918823</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>30.35931873321533</v>
+      </c>
+      <c r="F75">
+        <v>30.35931873321533</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76">
+        <v>12.59718751907349</v>
+      </c>
+      <c r="D76">
+        <v>7.280109882354736</v>
+      </c>
+      <c r="E76">
+        <v>16.8973913192749</v>
+      </c>
+      <c r="F76">
+        <v>16.8973913192749</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77">
+        <v>29.7439603805542</v>
+      </c>
+      <c r="D77">
+        <v>33.66760158538818</v>
+      </c>
+      <c r="E77">
+        <v>38.26725578308105</v>
+      </c>
+      <c r="F77">
+        <v>38.26725578308105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>9.339397430419922</v>
+      </c>
+      <c r="F78">
+        <v>9.339397430419922</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>14.80530309677124</v>
+      </c>
+      <c r="F79">
+        <v>14.80530309677124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80">
+        <v>13.39305019378662</v>
+      </c>
+      <c r="D80">
+        <v>24.57997703552246</v>
+      </c>
+      <c r="E80">
+        <v>50.77411937713623</v>
+      </c>
+      <c r="F80">
+        <v>50.77411937713623</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81">
+        <v>6.126172065734863</v>
+      </c>
+      <c r="D81">
+        <v>7.61577320098877</v>
+      </c>
+      <c r="E81">
+        <v>8.552851676940918</v>
+      </c>
+      <c r="F81">
+        <v>8.552851676940918</v>
       </c>
     </row>
   </sheetData>
